--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtLHTypeGradation.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtLHTypeGradation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A9D3F5-50B7-48A6-8441-323E7F12B53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA3045-7165-4775-80D9-2DE72FCF86EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO TỪNG THỊ TRƯỜNG</t>
-  </si>
-  <si>
     <t>Chuyển khoản</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>Chi Quầy</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO TỪNG THỊ TRƯỜNG</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +513,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1112,15 +1112,15 @@
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="16"/>
       <c r="C61" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17" t="s">
